--- a/DownloadsCalendar/Calendar_7675.xlsx
+++ b/DownloadsCalendar/Calendar_7675.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
-  <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>Наименование вида работ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+  <si>
+    <t>№ этапа</t>
+  </si>
+  <si>
+    <t>Наименование этапа работ</t>
   </si>
   <si>
     <t>Дата начала</t>
@@ -26,6 +26,9 @@
     <t>Дата окончания</t>
   </si>
   <si>
+    <t>Этап строительства 1</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -36,6 +39,96 @@
   </si>
   <si>
     <t>Отчет по инженерным изысканиям</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Согласование инженерных изысканий</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Рабочая документация</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Согласование рабочей документации</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Сметная документация</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Согласование сметной документации</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Проектная документация</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Согласование проектной документации</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Экспертиза проектной документация</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Землеустроительная документация</t>
+  </si>
+  <si>
+    <t>Этап строительства 3</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>8.1</t>
   </si>
 </sst>
 </file>
@@ -55,7 +148,7 @@
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="14.0"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -77,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -85,15 +178,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="medium"/>
+    </border>
+    <border>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <top style="medium"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -101,16 +251,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="7.8125" customWidth="true"/>
+    <col min="2" max="2" width="10.9375" customWidth="true"/>
     <col min="3" max="3" width="39.0625" customWidth="true"/>
-    <col min="4" max="4" width="23.4375" customWidth="true" style="2"/>
-    <col min="5" max="5" width="23.4375" customWidth="true" style="2"/>
+    <col min="4" max="4" width="23.4375" customWidth="true"/>
+    <col min="5" max="5" width="23.4375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -128,62 +278,334 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="n" s="2">
-        <v>45397.0</v>
-      </c>
-      <c r="E3" t="n" s="2">
-        <v>45426.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n" s="2">
-        <v>45426.0</v>
-      </c>
-      <c r="E4" t="n" s="2">
-        <v>45456.0</v>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45414.0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45446.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n" s="2">
-        <v>45456.0</v>
-      </c>
-      <c r="E5" t="n" s="2">
-        <v>45488.0</v>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45446.0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45524.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="s" s="0">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45524.0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45601.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45524.0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45553.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45553.0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45614.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45553.0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45583.0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45553.0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45583.0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45763.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45583.0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45705.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n" s="2">
-        <v>45488.0</v>
-      </c>
-      <c r="E6" t="n" s="2">
-        <v>45604.0</v>
+      <c r="D16" s="2" t="n">
+        <v>45434.0</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45454.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45454.0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45569.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45569.0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45629.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45569.0</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45614.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45614.0</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45674.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45614.0</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45705.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45614.0</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45705.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45705.0</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45825.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45666.0</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45764.0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B15:E15"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>